--- a/data/ElectricalSystem/Electrical_System_equipment.xlsx
+++ b/data/ElectricalSystem/Electrical_System_equipment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\lachope\Projects\stpa2mbsa\data\ElectricalSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F6DD8-4E4D-44CC-84A0-BF0C2CB581D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36BBA7-FC47-4BA9-B398-30D9FC47E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3221,16 +3221,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Equipment" displayName="Equipment" ref="A1:K1209" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:K1209" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AtomicBrickInstance"/>
-        <filter val="InConnector"/>
-        <filter val="OutConnector"/>
-        <filter val="StateVariable"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K1209" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Technical_id"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Nature"/>
@@ -3537,13 +3528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1213" sqref="C1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -3605,7 +3596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3642,7 +3633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3656,7 +3647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3687,7 +3678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3735,7 +3726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3749,7 +3740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3777,7 +3768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3797,7 +3788,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3834,7 +3825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3848,7 +3839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3879,7 +3870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3893,7 +3884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3938,7 +3929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3972,7 +3963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4020,7 +4011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -4034,7 +4025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4062,7 +4053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -4099,7 +4090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -4113,7 +4104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -4158,7 +4149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -4192,7 +4183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -4206,7 +4197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -4234,7 +4225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -4271,7 +4262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -4285,7 +4276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4319,7 +4310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -4333,7 +4324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -4361,7 +4352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -4381,7 +4372,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -4404,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4427,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4450,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4490,7 +4481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -4504,7 +4495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -4535,7 +4526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -4549,7 +4540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -4580,7 +4571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -4594,7 +4585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -4628,7 +4619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -4642,7 +4633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -4676,7 +4667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -4690,7 +4681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -4724,7 +4715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -4738,7 +4729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -4766,7 +4757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -4803,7 +4794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -4817,7 +4808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -4851,7 +4842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -4865,7 +4856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -4893,7 +4884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +4935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -4978,7 +4969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -4992,7 +4983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -5020,7 +5011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -5057,7 +5048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -5071,7 +5062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -5105,7 +5096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -5119,7 +5110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -5147,7 +5138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -5184,7 +5175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -5198,7 +5189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -5232,7 +5223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -5246,7 +5237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -5274,7 +5265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -5311,7 +5302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -5325,7 +5316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -5359,7 +5350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -5373,7 +5364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -5401,7 +5392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -5438,7 +5429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -5452,7 +5443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -5486,7 +5477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>29</v>
       </c>
@@ -5500,7 +5491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -5528,7 +5519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -5565,7 +5556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -5579,7 +5570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -5610,7 +5601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -5624,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -5658,7 +5649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -5672,7 +5663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -5700,7 +5691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -5737,7 +5728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -5751,7 +5742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -5782,7 +5773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -5796,7 +5787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -5827,7 +5818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -5841,7 +5832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -5875,7 +5866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -5889,7 +5880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -5917,7 +5908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -5954,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -5968,7 +5959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -5999,7 +5990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>29</v>
       </c>
@@ -6013,7 +6004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -6044,7 +6035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>29</v>
       </c>
@@ -6058,7 +6049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -6089,7 +6080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>29</v>
       </c>
@@ -6103,7 +6094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -6134,7 +6125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>29</v>
       </c>
@@ -6148,7 +6139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -6179,7 +6170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>29</v>
       </c>
@@ -6193,7 +6184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -6224,7 +6215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -6238,7 +6229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -6272,7 +6263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -6286,7 +6277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -6314,7 +6305,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -6351,7 +6342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>29</v>
       </c>
@@ -6365,7 +6356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -6396,7 +6387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -6410,7 +6401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -6441,7 +6432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>29</v>
       </c>
@@ -6455,7 +6446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -6486,7 +6477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -6500,7 +6491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -6531,7 +6522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>29</v>
       </c>
@@ -6545,7 +6536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -6576,7 +6567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -6590,7 +6581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -6621,7 +6612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -6635,7 +6626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -6666,7 +6657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -6680,7 +6671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -6711,7 +6702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>29</v>
       </c>
@@ -6725,7 +6716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -6756,7 +6747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -6770,7 +6761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -6801,7 +6792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>29</v>
       </c>
@@ -6815,7 +6806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -6849,7 +6840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>29</v>
       </c>
@@ -6863,7 +6854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -6891,7 +6882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -6928,7 +6919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -6942,7 +6933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -6973,7 +6964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -6987,7 +6978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -7018,7 +7009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -7032,7 +7023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -7063,7 +7054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -7077,7 +7068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -7111,7 +7102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>29</v>
       </c>
@@ -7125,7 +7116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -7153,7 +7144,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -7190,7 +7181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>29</v>
       </c>
@@ -7204,7 +7195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>29</v>
       </c>
@@ -7249,7 +7240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -7280,7 +7271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>29</v>
       </c>
@@ -7294,7 +7285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -7328,7 +7319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>29</v>
       </c>
@@ -7342,7 +7333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -7370,7 +7361,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -7407,7 +7398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -7421,7 +7412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -7452,7 +7443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -7466,7 +7457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -7500,7 +7491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>29</v>
       </c>
@@ -7514,7 +7505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -7542,7 +7533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -7579,7 +7570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -7624,7 +7615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -7638,7 +7629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -7672,7 +7663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>29</v>
       </c>
@@ -7686,7 +7677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>32</v>
       </c>
@@ -7714,7 +7705,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>260</v>
       </c>
@@ -7751,7 +7742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>29</v>
       </c>
@@ -7765,7 +7756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>32</v>
       </c>
@@ -7796,7 +7787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -7810,7 +7801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -7844,7 +7835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>29</v>
       </c>
@@ -7858,7 +7849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -7886,7 +7877,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>269</v>
       </c>
@@ -7906,7 +7897,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -7929,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>272</v>
       </c>
@@ -7969,7 +7960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>29</v>
       </c>
@@ -7983,7 +7974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -8014,7 +8005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -8028,7 +8019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -8059,7 +8050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -8073,7 +8064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -8104,7 +8095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -8118,7 +8109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -8152,7 +8143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>29</v>
       </c>
@@ -8166,7 +8157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -8200,7 +8191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>29</v>
       </c>
@@ -8214,7 +8205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -8242,7 +8233,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>289</v>
       </c>
@@ -8279,7 +8270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>29</v>
       </c>
@@ -8293,7 +8284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -8324,7 +8315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>29</v>
       </c>
@@ -8338,7 +8329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -8369,7 +8360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>29</v>
       </c>
@@ -8383,7 +8374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>32</v>
       </c>
@@ -8414,7 +8405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>29</v>
       </c>
@@ -8428,7 +8419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>29</v>
       </c>
@@ -8476,7 +8467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -8504,7 +8495,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>302</v>
       </c>
@@ -8541,7 +8532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>29</v>
       </c>
@@ -8555,7 +8546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -8586,7 +8577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -8600,7 +8591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -8634,7 +8625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>29</v>
       </c>
@@ -8648,7 +8639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -8676,7 +8667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>311</v>
       </c>
@@ -8713,7 +8704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -8727,7 +8718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>32</v>
       </c>
@@ -8758,7 +8749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -8772,7 +8763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -8803,7 +8794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -8817,7 +8808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>32</v>
       </c>
@@ -8848,7 +8839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -8862,7 +8853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>32</v>
       </c>
@@ -8893,7 +8884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>29</v>
       </c>
@@ -8907,7 +8898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>32</v>
       </c>
@@ -8938,7 +8929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -8952,7 +8943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -8983,7 +8974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -8997,7 +8988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -9028,7 +9019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>29</v>
       </c>
@@ -9042,7 +9033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>32</v>
       </c>
@@ -9073,7 +9064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>29</v>
       </c>
@@ -9087,7 +9078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>32</v>
       </c>
@@ -9118,7 +9109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>29</v>
       </c>
@@ -9132,7 +9123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>32</v>
       </c>
@@ -9163,7 +9154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>29</v>
       </c>
@@ -9177,7 +9168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -9211,7 +9202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>29</v>
       </c>
@@ -9225,7 +9216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>32</v>
       </c>
@@ -9253,7 +9244,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>342</v>
       </c>
@@ -9273,7 +9264,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>343</v>
       </c>
@@ -9296,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>345</v>
       </c>
@@ -9319,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>347</v>
       </c>
@@ -9342,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>349</v>
       </c>
@@ -9365,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>351</v>
       </c>
@@ -9388,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>353</v>
       </c>
@@ -9411,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>355</v>
       </c>
@@ -9434,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>357</v>
       </c>
@@ -9474,7 +9465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>29</v>
       </c>
@@ -9488,7 +9479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>32</v>
       </c>
@@ -9519,7 +9510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -9533,7 +9524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>32</v>
       </c>
@@ -9564,7 +9555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>29</v>
       </c>
@@ -9578,7 +9569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>32</v>
       </c>
@@ -9609,7 +9600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>29</v>
       </c>
@@ -9623,7 +9614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>32</v>
       </c>
@@ -9654,7 +9645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>29</v>
       </c>
@@ -9668,7 +9659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>32</v>
       </c>
@@ -9699,7 +9690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>29</v>
       </c>
@@ -9713,7 +9704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>32</v>
       </c>
@@ -9744,7 +9735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>29</v>
       </c>
@@ -9758,7 +9749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>32</v>
       </c>
@@ -9789,7 +9780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>29</v>
       </c>
@@ -9803,7 +9794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>32</v>
       </c>
@@ -9834,7 +9825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>29</v>
       </c>
@@ -9848,7 +9839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>32</v>
       </c>
@@ -9882,7 +9873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>29</v>
       </c>
@@ -9896,7 +9887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>32</v>
       </c>
@@ -9930,7 +9921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>29</v>
       </c>
@@ -9944,7 +9935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>32</v>
       </c>
@@ -9978,7 +9969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>29</v>
       </c>
@@ -9992,7 +9983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>32</v>
       </c>
@@ -10026,7 +10017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>29</v>
       </c>
@@ -10040,7 +10031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>32</v>
       </c>
@@ -10074,7 +10065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>29</v>
       </c>
@@ -10088,7 +10079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>32</v>
       </c>
@@ -10116,7 +10107,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>394</v>
       </c>
@@ -10136,7 +10127,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>395</v>
       </c>
@@ -10159,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>397</v>
       </c>
@@ -10182,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>399</v>
       </c>
@@ -10205,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>401</v>
       </c>
@@ -10245,7 +10236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>29</v>
       </c>
@@ -10259,7 +10250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>32</v>
       </c>
@@ -10290,7 +10281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>29</v>
       </c>
@@ -10304,7 +10295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>32</v>
       </c>
@@ -10335,7 +10326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>29</v>
       </c>
@@ -10349,7 +10340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>32</v>
       </c>
@@ -10380,7 +10371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>29</v>
       </c>
@@ -10394,7 +10385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>32</v>
       </c>
@@ -10425,7 +10416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>29</v>
       </c>
@@ -10439,7 +10430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>32</v>
       </c>
@@ -10473,7 +10464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>29</v>
       </c>
@@ -10487,7 +10478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>32</v>
       </c>
@@ -10521,7 +10512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>29</v>
       </c>
@@ -10535,7 +10526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>32</v>
       </c>
@@ -10569,7 +10560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>29</v>
       </c>
@@ -10583,7 +10574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>32</v>
       </c>
@@ -10611,7 +10602,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>423</v>
       </c>
@@ -10648,7 +10639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>29</v>
       </c>
@@ -10662,7 +10653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>32</v>
       </c>
@@ -10693,7 +10684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>29</v>
       </c>
@@ -10707,7 +10698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>32</v>
       </c>
@@ -10738,7 +10729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>29</v>
       </c>
@@ -10752,7 +10743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>32</v>
       </c>
@@ -10783,7 +10774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>29</v>
       </c>
@@ -10797,7 +10788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>32</v>
       </c>
@@ -10831,7 +10822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>29</v>
       </c>
@@ -10845,7 +10836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>32</v>
       </c>
@@ -10873,7 +10864,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>436</v>
       </c>
@@ -10910,7 +10901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>29</v>
       </c>
@@ -10924,7 +10915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>32</v>
       </c>
@@ -10958,7 +10949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>29</v>
       </c>
@@ -10972,7 +10963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>32</v>
       </c>
@@ -11000,7 +10991,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>443</v>
       </c>
@@ -11020,7 +11011,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>444</v>
       </c>
@@ -11043,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>445</v>
       </c>
@@ -11066,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>446</v>
       </c>
@@ -11089,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>447</v>
       </c>
@@ -11129,7 +11120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>29</v>
       </c>
@@ -11143,7 +11134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>32</v>
       </c>
@@ -11174,7 +11165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>29</v>
       </c>
@@ -11188,7 +11179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>32</v>
       </c>
@@ -11219,7 +11210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>29</v>
       </c>
@@ -11233,7 +11224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>32</v>
       </c>
@@ -11264,7 +11255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>29</v>
       </c>
@@ -11278,7 +11269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>32</v>
       </c>
@@ -11309,7 +11300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>29</v>
       </c>
@@ -11323,7 +11314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>32</v>
       </c>
@@ -11357,7 +11348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>29</v>
       </c>
@@ -11371,7 +11362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>32</v>
       </c>
@@ -11405,7 +11396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>29</v>
       </c>
@@ -11419,7 +11410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>32</v>
       </c>
@@ -11453,7 +11444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>29</v>
       </c>
@@ -11467,7 +11458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>32</v>
       </c>
@@ -11495,7 +11486,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>467</v>
       </c>
@@ -11532,7 +11523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>29</v>
       </c>
@@ -11546,7 +11537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -11577,7 +11568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>29</v>
       </c>
@@ -11591,7 +11582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>32</v>
       </c>
@@ -11625,7 +11616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>29</v>
       </c>
@@ -11639,7 +11630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>32</v>
       </c>
@@ -11667,7 +11658,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>476</v>
       </c>
@@ -11704,7 +11695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>29</v>
       </c>
@@ -11718,7 +11709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>32</v>
       </c>
@@ -11749,7 +11740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>29</v>
       </c>
@@ -11763,7 +11754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>32</v>
       </c>
@@ -11794,7 +11785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>29</v>
       </c>
@@ -11808,7 +11799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>32</v>
       </c>
@@ -11839,7 +11830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>29</v>
       </c>
@@ -11853,7 +11844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>32</v>
       </c>
@@ -11884,7 +11875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>29</v>
       </c>
@@ -11898,7 +11889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>32</v>
       </c>
@@ -11929,7 +11920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>29</v>
       </c>
@@ -11943,7 +11934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>32</v>
       </c>
@@ -11974,7 +11965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>29</v>
       </c>
@@ -11988,7 +11979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>32</v>
       </c>
@@ -12022,7 +12013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>29</v>
       </c>
@@ -12036,7 +12027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>32</v>
       </c>
@@ -12064,7 +12055,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>495</v>
       </c>
@@ -12101,7 +12092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>29</v>
       </c>
@@ -12115,7 +12106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>32</v>
       </c>
@@ -12146,7 +12137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>29</v>
       </c>
@@ -12160,7 +12151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>32</v>
       </c>
@@ -12191,7 +12182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>29</v>
       </c>
@@ -12205,7 +12196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>32</v>
       </c>
@@ -12239,7 +12230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>29</v>
       </c>
@@ -12253,7 +12244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>32</v>
       </c>
@@ -12281,7 +12272,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>506</v>
       </c>
@@ -12318,7 +12309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>29</v>
       </c>
@@ -12332,7 +12323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>32</v>
       </c>
@@ -12363,7 +12354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>29</v>
       </c>
@@ -12377,7 +12368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>32</v>
       </c>
@@ -12408,7 +12399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>29</v>
       </c>
@@ -12422,7 +12413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>32</v>
       </c>
@@ -12456,7 +12447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>29</v>
       </c>
@@ -12470,7 +12461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>32</v>
       </c>
@@ -12498,7 +12489,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>517</v>
       </c>
@@ -12535,7 +12526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>29</v>
       </c>
@@ -12549,7 +12540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>32</v>
       </c>
@@ -12580,7 +12571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>29</v>
       </c>
@@ -12594,7 +12585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>32</v>
       </c>
@@ -12628,7 +12619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>29</v>
       </c>
@@ -12642,7 +12633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>32</v>
       </c>
@@ -12670,7 +12661,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>526</v>
       </c>
@@ -12707,7 +12698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>29</v>
       </c>
@@ -12721,7 +12712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>32</v>
       </c>
@@ -12755,7 +12746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>29</v>
       </c>
@@ -12769,7 +12760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>32</v>
       </c>
@@ -12797,7 +12788,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>533</v>
       </c>
@@ -12817,7 +12808,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>534</v>
       </c>
@@ -12854,7 +12845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>29</v>
       </c>
@@ -12868,7 +12859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>32</v>
       </c>
@@ -12899,7 +12890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>29</v>
       </c>
@@ -12913,7 +12904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>32</v>
       </c>
@@ -12944,7 +12935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>29</v>
       </c>
@@ -12958,7 +12949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>32</v>
       </c>
@@ -12992,7 +12983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>29</v>
       </c>
@@ -13006,7 +12997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>32</v>
       </c>
@@ -13040,7 +13031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>29</v>
       </c>
@@ -13054,7 +13045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>32</v>
       </c>
@@ -13082,7 +13073,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>547</v>
       </c>
@@ -13119,7 +13110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>29</v>
       </c>
@@ -13133,7 +13124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>32</v>
       </c>
@@ -13167,7 +13158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>29</v>
       </c>
@@ -13181,7 +13172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>32</v>
       </c>
@@ -13209,7 +13200,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>554</v>
       </c>
@@ -13246,7 +13237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>29</v>
       </c>
@@ -13260,7 +13251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>32</v>
       </c>
@@ -13291,7 +13282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>29</v>
       </c>
@@ -13305,7 +13296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>32</v>
       </c>
@@ -13336,7 +13327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>29</v>
       </c>
@@ -13350,7 +13341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>32</v>
       </c>
@@ -13381,7 +13372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>29</v>
       </c>
@@ -13395,7 +13386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>32</v>
       </c>
@@ -13429,7 +13420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>29</v>
       </c>
@@ -13443,7 +13434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>32</v>
       </c>
@@ -13471,7 +13462,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>567</v>
       </c>
@@ -13491,7 +13482,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>568</v>
       </c>
@@ -13514,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>569</v>
       </c>
@@ -13537,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>570</v>
       </c>
@@ -13560,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>571</v>
       </c>
@@ -13600,7 +13591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>29</v>
       </c>
@@ -13614,7 +13605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>32</v>
       </c>
@@ -13645,7 +13636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>29</v>
       </c>
@@ -13659,7 +13650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>32</v>
       </c>
@@ -13690,7 +13681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>29</v>
       </c>
@@ -13704,7 +13695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>32</v>
       </c>
@@ -13738,7 +13729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>29</v>
       </c>
@@ -13752,7 +13743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>32</v>
       </c>
@@ -13786,7 +13777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>29</v>
       </c>
@@ -13800,7 +13791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>32</v>
       </c>
@@ -13834,7 +13825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>29</v>
       </c>
@@ -13848,7 +13839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>32</v>
       </c>
@@ -13876,7 +13867,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>586</v>
       </c>
@@ -13896,7 +13887,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>587</v>
       </c>
@@ -13933,7 +13924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>29</v>
       </c>
@@ -13947,7 +13938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>32</v>
       </c>
@@ -13981,7 +13972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>29</v>
       </c>
@@ -13995,7 +13986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>32</v>
       </c>
@@ -14023,7 +14014,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>595</v>
       </c>
@@ -14060,7 +14051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>29</v>
       </c>
@@ -14074,7 +14065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>32</v>
       </c>
@@ -14108,7 +14099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>29</v>
       </c>
@@ -14122,7 +14113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>32</v>
       </c>
@@ -14150,7 +14141,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>602</v>
       </c>
@@ -14187,7 +14178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>29</v>
       </c>
@@ -14201,7 +14192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>32</v>
       </c>
@@ -14232,7 +14223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>29</v>
       </c>
@@ -14246,7 +14237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>32</v>
       </c>
@@ -14277,7 +14268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>32</v>
       </c>
@@ -14322,7 +14313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>29</v>
       </c>
@@ -14336,7 +14327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>32</v>
       </c>
@@ -14367,7 +14358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>29</v>
       </c>
@@ -14381,7 +14372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>32</v>
       </c>
@@ -14412,7 +14403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>29</v>
       </c>
@@ -14426,7 +14417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>32</v>
       </c>
@@ -14457,7 +14448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>29</v>
       </c>
@@ -14471,7 +14462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>32</v>
       </c>
@@ -14502,7 +14493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>29</v>
       </c>
@@ -14516,7 +14507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>32</v>
       </c>
@@ -14547,7 +14538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>29</v>
       </c>
@@ -14561,7 +14552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>32</v>
       </c>
@@ -14592,7 +14583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>29</v>
       </c>
@@ -14606,7 +14597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>32</v>
       </c>
@@ -14640,7 +14631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>29</v>
       </c>
@@ -14654,7 +14645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>32</v>
       </c>
@@ -14682,7 +14673,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>627</v>
       </c>
@@ -14719,7 +14710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>29</v>
       </c>
@@ -14733,7 +14724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>32</v>
       </c>
@@ -14764,7 +14755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>29</v>
       </c>
@@ -14778,7 +14769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>32</v>
       </c>
@@ -14812,7 +14803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>29</v>
       </c>
@@ -14826,7 +14817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>32</v>
       </c>
@@ -14854,7 +14845,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>636</v>
       </c>
@@ -14891,7 +14882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>29</v>
       </c>
@@ -14905,7 +14896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>32</v>
       </c>
@@ -14939,7 +14930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>29</v>
       </c>
@@ -14953,7 +14944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>32</v>
       </c>
@@ -14981,7 +14972,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>643</v>
       </c>
@@ -15018,7 +15009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>29</v>
       </c>
@@ -15032,7 +15023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>32</v>
       </c>
@@ -15066,7 +15057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>29</v>
       </c>
@@ -15080,7 +15071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>32</v>
       </c>
@@ -15108,7 +15099,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>650</v>
       </c>
@@ -15145,7 +15136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>29</v>
       </c>
@@ -15159,7 +15150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>32</v>
       </c>
@@ -15190,7 +15181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>29</v>
       </c>
@@ -15204,7 +15195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>32</v>
       </c>
@@ -15238,7 +15229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>29</v>
       </c>
@@ -15252,7 +15243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>32</v>
       </c>
@@ -15280,7 +15271,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>659</v>
       </c>
@@ -15317,7 +15308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>29</v>
       </c>
@@ -15331,7 +15322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>32</v>
       </c>
@@ -15362,7 +15353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>29</v>
       </c>
@@ -15376,7 +15367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>32</v>
       </c>
@@ -15407,7 +15398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>29</v>
       </c>
@@ -15421,7 +15412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>32</v>
       </c>
@@ -15452,7 +15443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>29</v>
       </c>
@@ -15466,7 +15457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>32</v>
       </c>
@@ -15497,7 +15488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>29</v>
       </c>
@@ -15511,7 +15502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>32</v>
       </c>
@@ -15542,7 +15533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>29</v>
       </c>
@@ -15556,7 +15547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>32</v>
       </c>
@@ -15587,7 +15578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>29</v>
       </c>
@@ -15601,7 +15592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>32</v>
       </c>
@@ -15635,7 +15626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>29</v>
       </c>
@@ -15649,7 +15640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>32</v>
       </c>
@@ -15677,7 +15668,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>678</v>
       </c>
@@ -15697,7 +15688,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>679</v>
       </c>
@@ -15720,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>681</v>
       </c>
@@ -15743,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>683</v>
       </c>
@@ -15766,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>685</v>
       </c>
@@ -15806,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>29</v>
       </c>
@@ -15820,7 +15811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>32</v>
       </c>
@@ -15851,7 +15842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>29</v>
       </c>
@@ -15865,7 +15856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>32</v>
       </c>
@@ -15896,7 +15887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>29</v>
       </c>
@@ -15910,7 +15901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>32</v>
       </c>
@@ -15941,7 +15932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>29</v>
       </c>
@@ -15955,7 +15946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>32</v>
       </c>
@@ -15986,7 +15977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>29</v>
       </c>
@@ -16000,7 +15991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>32</v>
       </c>
@@ -16034,7 +16025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>29</v>
       </c>
@@ -16048,7 +16039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>32</v>
       </c>
@@ -16082,7 +16073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>29</v>
       </c>
@@ -16096,7 +16087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>32</v>
       </c>
@@ -16130,7 +16121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>29</v>
       </c>
@@ -16144,7 +16135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>32</v>
       </c>
@@ -16172,7 +16163,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>707</v>
       </c>
@@ -16209,7 +16200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>29</v>
       </c>
@@ -16223,7 +16214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>32</v>
       </c>
@@ -16254,7 +16245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>29</v>
       </c>
@@ -16268,7 +16259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>32</v>
       </c>
@@ -16302,7 +16293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>29</v>
       </c>
@@ -16316,7 +16307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>32</v>
       </c>
@@ -16344,7 +16335,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>716</v>
       </c>
@@ -16381,7 +16372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>29</v>
       </c>
@@ -16395,7 +16386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>32</v>
       </c>
@@ -16426,7 +16417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>29</v>
       </c>
@@ -16440,7 +16431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>32</v>
       </c>
@@ -16474,7 +16465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>29</v>
       </c>
@@ -16488,7 +16479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>32</v>
       </c>
@@ -16516,7 +16507,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>725</v>
       </c>
@@ -16553,7 +16544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>29</v>
       </c>
@@ -16567,7 +16558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>32</v>
       </c>
@@ -16598,7 +16589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>29</v>
       </c>
@@ -16612,7 +16603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>32</v>
       </c>
@@ -16646,7 +16637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>29</v>
       </c>
@@ -16660,7 +16651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>32</v>
       </c>
@@ -16688,7 +16679,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>734</v>
       </c>
@@ -16708,7 +16699,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>735</v>
       </c>
@@ -16731,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>737</v>
       </c>
@@ -16754,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>739</v>
       </c>
@@ -16777,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>741</v>
       </c>
@@ -16817,7 +16808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>29</v>
       </c>
@@ -16831,7 +16822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>32</v>
       </c>
@@ -16862,7 +16853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>29</v>
       </c>
@@ -16876,7 +16867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>32</v>
       </c>
@@ -16907,7 +16898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>29</v>
       </c>
@@ -16921,7 +16912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>32</v>
       </c>
@@ -16952,7 +16943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>29</v>
       </c>
@@ -16966,7 +16957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>32</v>
       </c>
@@ -16997,7 +16988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>29</v>
       </c>
@@ -17011,7 +17002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>32</v>
       </c>
@@ -17045,7 +17036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>29</v>
       </c>
@@ -17059,7 +17050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>32</v>
       </c>
@@ -17093,7 +17084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>29</v>
       </c>
@@ -17107,7 +17098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="856" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>32</v>
       </c>
@@ -17141,7 +17132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>29</v>
       </c>
@@ -17155,7 +17146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>32</v>
       </c>
@@ -17183,7 +17174,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>763</v>
       </c>
@@ -17220,7 +17211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>29</v>
       </c>
@@ -17234,7 +17225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>32</v>
       </c>
@@ -17265,7 +17256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="866" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>29</v>
       </c>
@@ -17279,7 +17270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>32</v>
       </c>
@@ -17313,7 +17304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>29</v>
       </c>
@@ -17327,7 +17318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>32</v>
       </c>
@@ -17355,7 +17346,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>772</v>
       </c>
@@ -17392,7 +17383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="874" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>29</v>
       </c>
@@ -17406,7 +17397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>32</v>
       </c>
@@ -17440,7 +17431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>29</v>
       </c>
@@ -17454,7 +17445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>32</v>
       </c>
@@ -17482,7 +17473,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="880" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>779</v>
       </c>
@@ -17519,7 +17510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>29</v>
       </c>
@@ -17533,7 +17524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>32</v>
       </c>
@@ -17564,7 +17555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>29</v>
       </c>
@@ -17578,7 +17569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="886" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>32</v>
       </c>
@@ -17612,7 +17603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>29</v>
       </c>
@@ -17626,7 +17617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>32</v>
       </c>
@@ -17654,7 +17645,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>788</v>
       </c>
@@ -17691,7 +17682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>29</v>
       </c>
@@ -17705,7 +17696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>32</v>
       </c>
@@ -17736,7 +17727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>29</v>
       </c>
@@ -17750,7 +17741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>32</v>
       </c>
@@ -17781,7 +17772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>29</v>
       </c>
@@ -17795,7 +17786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>32</v>
       </c>
@@ -17829,7 +17820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>29</v>
       </c>
@@ -17843,7 +17834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>32</v>
       </c>
@@ -17871,7 +17862,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>799</v>
       </c>
@@ -17908,7 +17899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>29</v>
       </c>
@@ -17922,7 +17913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>32</v>
       </c>
@@ -17953,7 +17944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>29</v>
       </c>
@@ -17967,7 +17958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>32</v>
       </c>
@@ -17998,7 +17989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>29</v>
       </c>
@@ -18012,7 +18003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>32</v>
       </c>
@@ -18046,7 +18037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>29</v>
       </c>
@@ -18060,7 +18051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>32</v>
       </c>
@@ -18088,7 +18079,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>810</v>
       </c>
@@ -18125,7 +18116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>29</v>
       </c>
@@ -18139,7 +18130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="922" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>32</v>
       </c>
@@ -18173,7 +18164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>29</v>
       </c>
@@ -18187,7 +18178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>32</v>
       </c>
@@ -18215,7 +18206,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>817</v>
       </c>
@@ -18252,7 +18243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>29</v>
       </c>
@@ -18266,7 +18257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>32</v>
       </c>
@@ -18297,7 +18288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>29</v>
       </c>
@@ -18311,7 +18302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>32</v>
       </c>
@@ -18345,7 +18336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>29</v>
       </c>
@@ -18359,7 +18350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>32</v>
       </c>
@@ -18387,7 +18378,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>826</v>
       </c>
@@ -18407,7 +18398,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>827</v>
       </c>
@@ -18430,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>828</v>
       </c>
@@ -18453,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>829</v>
       </c>
@@ -18476,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>830</v>
       </c>
@@ -18516,7 +18507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>29</v>
       </c>
@@ -18530,7 +18521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="945" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>32</v>
       </c>
@@ -18561,7 +18552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>29</v>
       </c>
@@ -18575,7 +18566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="948" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>32</v>
       </c>
@@ -18606,7 +18597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>29</v>
       </c>
@@ -18620,7 +18611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>32</v>
       </c>
@@ -18651,7 +18642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="953" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>29</v>
       </c>
@@ -18665,7 +18656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="954" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>32</v>
       </c>
@@ -18696,7 +18687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="956" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>29</v>
       </c>
@@ -18710,7 +18701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>32</v>
       </c>
@@ -18744,7 +18735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="959" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>29</v>
       </c>
@@ -18758,7 +18749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>32</v>
       </c>
@@ -18792,7 +18783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>29</v>
       </c>
@@ -18806,7 +18797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>32</v>
       </c>
@@ -18840,7 +18831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>29</v>
       </c>
@@ -18854,7 +18845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>32</v>
       </c>
@@ -18882,7 +18873,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>849</v>
       </c>
@@ -18902,7 +18893,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>850</v>
       </c>
@@ -18939,7 +18930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>29</v>
       </c>
@@ -18953,7 +18944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>32</v>
       </c>
@@ -18984,7 +18975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>29</v>
       </c>
@@ -18998,7 +18989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>32</v>
       </c>
@@ -19029,7 +19020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>29</v>
       </c>
@@ -19043,7 +19034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>32</v>
       </c>
@@ -19074,7 +19065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>29</v>
       </c>
@@ -19088,7 +19079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>32</v>
       </c>
@@ -19119,7 +19110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>29</v>
       </c>
@@ -19133,7 +19124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>32</v>
       </c>
@@ -19164,7 +19155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>29</v>
       </c>
@@ -19178,7 +19169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>32</v>
       </c>
@@ -19209,7 +19200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>29</v>
       </c>
@@ -19223,7 +19214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>32</v>
       </c>
@@ -19254,7 +19245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>29</v>
       </c>
@@ -19268,7 +19259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="993" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>32</v>
       </c>
@@ -19299,7 +19290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="995" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>29</v>
       </c>
@@ -19313,7 +19304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="996" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>32</v>
       </c>
@@ -19344,7 +19335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="998" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>29</v>
       </c>
@@ -19358,7 +19349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>32</v>
       </c>
@@ -19389,7 +19380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>29</v>
       </c>
@@ -19403,7 +19394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>32</v>
       </c>
@@ -19437,7 +19428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>29</v>
       </c>
@@ -19451,7 +19442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>32</v>
       </c>
@@ -19479,7 +19470,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>885</v>
       </c>
@@ -19499,7 +19490,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>886</v>
       </c>
@@ -19522,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>887</v>
       </c>
@@ -19545,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>888</v>
       </c>
@@ -19568,7 +19559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>889</v>
       </c>
@@ -19608,7 +19599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1013" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>29</v>
       </c>
@@ -19622,7 +19613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1014" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>32</v>
       </c>
@@ -19653,7 +19644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1016" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>29</v>
       </c>
@@ -19667,7 +19658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1017" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>32</v>
       </c>
@@ -19698,7 +19689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1019" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>29</v>
       </c>
@@ -19712,7 +19703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1020" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>32</v>
       </c>
@@ -19743,7 +19734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1022" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>29</v>
       </c>
@@ -19757,7 +19748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1023" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>32</v>
       </c>
@@ -19788,7 +19779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>29</v>
       </c>
@@ -19802,7 +19793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>32</v>
       </c>
@@ -19836,7 +19827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>29</v>
       </c>
@@ -19850,7 +19841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>32</v>
       </c>
@@ -19884,7 +19875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>29</v>
       </c>
@@ -19898,7 +19889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>32</v>
       </c>
@@ -19932,7 +19923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>29</v>
       </c>
@@ -19946,7 +19937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>32</v>
       </c>
@@ -19974,7 +19965,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>908</v>
       </c>
@@ -19994,7 +19985,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>909</v>
       </c>
@@ -20017,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>910</v>
       </c>
@@ -20040,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>911</v>
       </c>
@@ -20063,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>912</v>
       </c>
@@ -20103,7 +20094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1043" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>29</v>
       </c>
@@ -20117,7 +20108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1044" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>32</v>
       </c>
@@ -20148,7 +20139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1046" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>29</v>
       </c>
@@ -20162,7 +20153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1047" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>32</v>
       </c>
@@ -20193,7 +20184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1049" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>29</v>
       </c>
@@ -20207,7 +20198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1050" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>32</v>
       </c>
@@ -20238,7 +20229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1052" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>29</v>
       </c>
@@ -20252,7 +20243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1053" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>32</v>
       </c>
@@ -20283,7 +20274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1055" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>29</v>
       </c>
@@ -20297,7 +20288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1056" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>32</v>
       </c>
@@ -20331,7 +20322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1058" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>29</v>
       </c>
@@ -20345,7 +20336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>32</v>
       </c>
@@ -20379,7 +20370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>29</v>
       </c>
@@ -20393,7 +20384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>32</v>
       </c>
@@ -20427,7 +20418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>29</v>
       </c>
@@ -20441,7 +20432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>32</v>
       </c>
@@ -20469,7 +20460,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>931</v>
       </c>
@@ -20489,7 +20480,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1068" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>932</v>
       </c>
@@ -20512,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>933</v>
       </c>
@@ -20535,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>934</v>
       </c>
@@ -20558,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>935</v>
       </c>
@@ -20598,7 +20589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>29</v>
       </c>
@@ -20612,7 +20603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>32</v>
       </c>
@@ -20643,7 +20634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>29</v>
       </c>
@@ -20657,7 +20648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>32</v>
       </c>
@@ -20688,7 +20679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>29</v>
       </c>
@@ -20702,7 +20693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>32</v>
       </c>
@@ -20733,7 +20724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>29</v>
       </c>
@@ -20747,7 +20738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>32</v>
       </c>
@@ -20778,7 +20769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>29</v>
       </c>
@@ -20792,7 +20783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>32</v>
       </c>
@@ -20826,7 +20817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>29</v>
       </c>
@@ -20840,7 +20831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1089" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>32</v>
       </c>
@@ -20874,7 +20865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1091" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>29</v>
       </c>
@@ -20888,7 +20879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1092" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>32</v>
       </c>
@@ -20922,7 +20913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>29</v>
       </c>
@@ -20936,7 +20927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1095" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>32</v>
       </c>
@@ -20964,7 +20955,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="1097" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>954</v>
       </c>
@@ -20984,7 +20975,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1098" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>955</v>
       </c>
@@ -21007,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1099" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>956</v>
       </c>
@@ -21030,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>957</v>
       </c>
@@ -21053,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>958</v>
       </c>
@@ -21093,7 +21084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>29</v>
       </c>
@@ -21107,7 +21098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>32</v>
       </c>
@@ -21138,7 +21129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>29</v>
       </c>
@@ -21152,7 +21143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>32</v>
       </c>
@@ -21183,7 +21174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>29</v>
       </c>
@@ -21197,7 +21188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>32</v>
       </c>
@@ -21228,7 +21219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>29</v>
       </c>
@@ -21242,7 +21233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>32</v>
       </c>
@@ -21273,7 +21264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>29</v>
       </c>
@@ -21287,7 +21278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>32</v>
       </c>
@@ -21321,7 +21312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>29</v>
       </c>
@@ -21335,7 +21326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>32</v>
       </c>
@@ -21369,7 +21360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>29</v>
       </c>
@@ -21383,7 +21374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>32</v>
       </c>
@@ -21417,7 +21408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>29</v>
       </c>
@@ -21431,7 +21422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>32</v>
       </c>
@@ -21459,7 +21450,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="1127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>977</v>
       </c>
@@ -21479,7 +21470,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>978</v>
       </c>
@@ -21502,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
         <v>979</v>
       </c>
@@ -21525,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>980</v>
       </c>
@@ -21548,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>981</v>
       </c>
@@ -21588,7 +21579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>29</v>
       </c>
@@ -21602,7 +21593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>32</v>
       </c>
@@ -21633,7 +21624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>29</v>
       </c>
@@ -21647,7 +21638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
         <v>32</v>
       </c>
@@ -21678,7 +21669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
         <v>29</v>
       </c>
@@ -21692,7 +21683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
         <v>32</v>
       </c>
@@ -21723,7 +21714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
         <v>29</v>
       </c>
@@ -21737,7 +21728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
         <v>32</v>
       </c>
@@ -21768,7 +21759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>29</v>
       </c>
@@ -21782,7 +21773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
         <v>32</v>
       </c>
@@ -21816,7 +21807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
         <v>29</v>
       </c>
@@ -21830,7 +21821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>32</v>
       </c>
@@ -21864,7 +21855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>29</v>
       </c>
@@ -21878,7 +21869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>32</v>
       </c>
@@ -21912,7 +21903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>29</v>
       </c>
@@ -21926,7 +21917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>32</v>
       </c>
@@ -21954,7 +21945,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="1157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>1000</v>
       </c>
@@ -21974,7 +21965,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>1001</v>
       </c>
@@ -21997,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>1002</v>
       </c>
@@ -22020,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>1003</v>
       </c>
@@ -22043,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>1004</v>
       </c>
@@ -22083,7 +22074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>29</v>
       </c>
@@ -22097,7 +22088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>32</v>
       </c>
@@ -22128,7 +22119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
         <v>29</v>
       </c>
@@ -22142,7 +22133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
         <v>32</v>
       </c>
@@ -22173,7 +22164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>29</v>
       </c>
@@ -22187,7 +22178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>32</v>
       </c>
@@ -22218,7 +22209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>29</v>
       </c>
@@ -22232,7 +22223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>32</v>
       </c>
@@ -22263,7 +22254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>29</v>
       </c>
@@ -22277,7 +22268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>32</v>
       </c>
@@ -22311,7 +22302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>29</v>
       </c>
@@ -22325,7 +22316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>32</v>
       </c>
@@ -22359,7 +22350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>29</v>
       </c>
@@ -22373,7 +22364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>32</v>
       </c>
@@ -22407,7 +22398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>29</v>
       </c>
@@ -22421,7 +22412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>32</v>
       </c>
@@ -22449,7 +22440,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="1187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>1023</v>
       </c>
@@ -22469,7 +22460,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>1024</v>
       </c>
@@ -22506,7 +22497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>29</v>
       </c>
@@ -22520,7 +22511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>32</v>
       </c>
@@ -22551,7 +22542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>29</v>
       </c>
@@ -22565,7 +22556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>32</v>
       </c>
@@ -22599,7 +22590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
         <v>29</v>
       </c>
@@ -22613,7 +22604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>32</v>
       </c>
@@ -22641,7 +22632,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="1199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>1034</v>
       </c>
@@ -22661,7 +22652,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="1200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>1035</v>
       </c>
@@ -22698,7 +22689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>29</v>
       </c>
@@ -22712,7 +22703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>32</v>
       </c>
@@ -22743,7 +22734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>29</v>
       </c>
@@ -22757,7 +22748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>32</v>
       </c>
@@ -22791,7 +22782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>29</v>
       </c>
@@ -22805,7 +22796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>32</v>
       </c>
